--- a/data_excel/362.xlsx
+++ b/data_excel/362.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\AI\project2_extension\example_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8061DF5-128C-447F-9C82-0EA2FC74CB68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25440" yWindow="3360" windowWidth="10260" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25440" yWindow="3360" windowWidth="10260" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>盒子</t>
   </si>
@@ -113,14 +112,24 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +144,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -152,12 +176,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -459,16 +523,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -528,7 +592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -548,7 +612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -568,7 +632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -588,7 +652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -596,7 +660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -607,44 +671,55 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data_excel/362.xlsx
+++ b/data_excel/362.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\AI\project2_extension\example_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8061DF5-128C-447F-9C82-0EA2FC74CB68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25440" yWindow="3360" windowWidth="10260" windowHeight="11550"/>
+    <workbookView xWindow="-25440" yWindow="3360" windowWidth="10260" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>盒子</t>
   </si>
@@ -112,24 +113,14 @@
   </si>
   <si>
     <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,21 +135,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -176,52 +152,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -523,16 +459,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -572,7 +508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -592,7 +528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -612,7 +548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -632,7 +568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -652,7 +588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -660,7 +596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -671,55 +607,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data_excel/362.xlsx
+++ b/data_excel/362.xlsx
@@ -78,9 +78,6 @@
     <t>放入</t>
   </si>
   <si>
-    <t>pv</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -111,17 +108,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,11 +218,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -527,7 +529,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -540,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -549,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -560,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -569,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -589,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -609,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -629,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -649,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,40 +670,40 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -712,12 +714,12 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
